--- a/tests/test_paklijsten/paklijst_kokos.xlsx
+++ b/tests/test_paklijsten/paklijst_kokos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Desktop\paklijsten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Documents\HDS\2d_rectangle_packing\tests\test_paklijsten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC8C27F-332E-43F4-B092-DFF990E721BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E125C8D4-57DF-44BE-8482-816FE7D07ED6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="paklijst_zonder_opmaak" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Aantal</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Mevr. Groen</t>
+  </si>
+  <si>
+    <t>Materiaal</t>
   </si>
 </sst>
 </file>
@@ -100,13 +103,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -156,18 +166,19 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A9" sqref="A4:XFD9"/>
+      <selection activeCell="C2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -506,7 +517,7 @@
     <col min="12" max="1025" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -540,8 +551,11 @@
       <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="L1" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -575,8 +589,11 @@
       <c r="K2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -610,32 +627,35 @@
       <c r="K3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C4" s="4"/>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C5" s="4"/>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="4"/>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="4"/>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="4"/>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="4"/>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -648,7 +668,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -661,7 +681,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -674,7 +694,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -687,7 +707,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -700,7 +720,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -713,7 +733,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>

--- a/tests/test_paklijsten/paklijst_kokos.xlsx
+++ b/tests/test_paklijsten/paklijst_kokos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Desktop\paklijsten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Documents\HDS\2d_rectangle_packing\tests\test_paklijsten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC8C27F-332E-43F4-B092-DFF990E721BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CB6FA7-6ADD-45A1-975F-B192F80166CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="paklijst_zonder_opmaak" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Aantal</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Mevr. Groen</t>
+  </si>
+  <si>
+    <t>Materiaal</t>
   </si>
 </sst>
 </file>
@@ -100,13 +103,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -156,18 +166,19 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,29 +495,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A9" sqref="A4:XFD9"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875"/>
-    <col min="2" max="2" width="11.33203125"/>
-    <col min="3" max="3" width="52.6640625" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625"/>
-    <col min="5" max="5" width="6.44140625"/>
-    <col min="6" max="6" width="10.88671875" style="1"/>
-    <col min="7" max="7" width="13.44140625"/>
-    <col min="8" max="8" width="12.88671875"/>
-    <col min="9" max="9" width="26.109375"/>
-    <col min="10" max="10" width="16.88671875"/>
-    <col min="11" max="11" width="10.109375"/>
-    <col min="12" max="1025" width="8.5546875"/>
+    <col min="1" max="1" width="11.5703125"/>
+    <col min="2" max="2" width="11.28515625"/>
+    <col min="3" max="3" width="52.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125"/>
+    <col min="5" max="5" width="6.42578125"/>
+    <col min="6" max="6" width="10.85546875" style="1"/>
+    <col min="7" max="7" width="13.42578125"/>
+    <col min="8" max="8" width="12.85546875"/>
+    <col min="9" max="9" width="26.140625"/>
+    <col min="10" max="10" width="16.85546875"/>
+    <col min="11" max="11" width="10.140625"/>
+    <col min="12" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -540,8 +551,11 @@
       <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="L1" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -575,8 +589,11 @@
       <c r="K2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -610,32 +627,35 @@
       <c r="K3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C4" s="4"/>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C5" s="4"/>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="4"/>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -648,7 +668,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -661,7 +681,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -674,7 +694,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -687,7 +707,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -700,7 +720,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -713,7 +733,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -726,7 +746,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -739,7 +759,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -752,7 +772,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -765,7 +785,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -778,7 +798,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -791,7 +811,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -804,7 +824,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -817,7 +837,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -830,7 +850,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -843,7 +863,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -856,7 +876,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -869,7 +889,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -882,7 +902,7 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -895,7 +915,7 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -908,7 +928,7 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -921,7 +941,7 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -934,7 +954,7 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -947,7 +967,7 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -960,7 +980,7 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -973,7 +993,7 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -986,7 +1006,7 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -999,7 +1019,7 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1012,7 +1032,7 @@
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1025,7 +1045,7 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1038,7 +1058,7 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1051,22 +1071,22 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F42"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F43"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F44"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F45"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F46"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1086,21 +1106,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005F1A4E165AE4AA47A58D7F402C58032D" ma:contentTypeVersion="12" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="08e8f4128fe39f6c410bb3e184f6b02c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a770380-a541-49fb-a5e7-be562a0ab7fc" xmlns:ns3="ce6e5384-3d40-41c8-8f4c-f6763c848ff7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="638cd77b2c67c1f99ba832209e451d50" ns2:_="" ns3:_="">
     <xsd:import namespace="1a770380-a541-49fb-a5e7-be562a0ab7fc"/>
@@ -1317,24 +1322,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3EC323E-1C66-4DED-84F7-F717AC772B25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAF11026-BEE7-4810-A662-14866A3103A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B07BBEF-B0C4-4366-A071-C1C9ADEA7D0F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1351,4 +1354,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAF11026-BEE7-4810-A662-14866A3103A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3EC323E-1C66-4DED-84F7-F717AC772B25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/tests/test_paklijsten/paklijst_kokos.xlsx
+++ b/tests/test_paklijsten/paklijst_kokos.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Documents\HDS\2d_rectangle_packing\tests\test_paklijsten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E125C8D4-57DF-44BE-8482-816FE7D07ED6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B259D1D9-307F-4931-8D8E-D262EDF17641}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="paklijst_zonder_opmaak" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>Aantal</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Materiaal</t>
+  </si>
+  <si>
+    <t>Artikelnaam</t>
   </si>
 </sst>
 </file>
@@ -495,29 +498,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:C2"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875"/>
-    <col min="2" max="2" width="11.33203125"/>
-    <col min="3" max="3" width="52.6640625" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625"/>
-    <col min="5" max="5" width="6.44140625"/>
-    <col min="6" max="6" width="10.88671875" style="1"/>
-    <col min="7" max="7" width="13.44140625"/>
-    <col min="8" max="8" width="12.88671875"/>
-    <col min="9" max="9" width="26.109375"/>
-    <col min="10" max="10" width="16.88671875"/>
-    <col min="11" max="11" width="10.109375"/>
-    <col min="12" max="1025" width="8.5546875"/>
+    <col min="1" max="1" width="11.5703125"/>
+    <col min="2" max="2" width="11.28515625"/>
+    <col min="3" max="3" width="52.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125"/>
+    <col min="5" max="5" width="6.42578125"/>
+    <col min="6" max="6" width="10.85546875" style="1"/>
+    <col min="7" max="7" width="13.42578125"/>
+    <col min="8" max="8" width="12.85546875"/>
+    <col min="9" max="9" width="26.140625"/>
+    <col min="10" max="10" width="16.85546875"/>
+    <col min="11" max="11" width="10.140625"/>
+    <col min="12" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -554,8 +557,11 @@
       <c r="L1" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -592,8 +598,11 @@
       <c r="L2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -630,32 +639,35 @@
       <c r="L3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C4" s="4"/>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C5" s="4"/>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C8" s="4"/>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -668,7 +680,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -681,7 +693,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -694,7 +706,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -707,7 +719,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -720,7 +732,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -733,7 +745,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -746,7 +758,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -759,7 +771,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -772,7 +784,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -785,7 +797,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -798,7 +810,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -811,7 +823,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -824,7 +836,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -837,7 +849,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -850,7 +862,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -863,7 +875,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -876,7 +888,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -889,7 +901,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -902,7 +914,7 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -915,7 +927,7 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -928,7 +940,7 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -941,7 +953,7 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -954,7 +966,7 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -967,7 +979,7 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -980,7 +992,7 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -993,7 +1005,7 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1006,7 +1018,7 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1019,7 +1031,7 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1032,7 +1044,7 @@
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1045,7 +1057,7 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1058,7 +1070,7 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1071,22 +1083,22 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F42"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F43"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F44"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F45"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F46"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1106,18 +1118,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1338,18 +1350,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3EC323E-1C66-4DED-84F7-F717AC772B25}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAF11026-BEE7-4810-A662-14866A3103A8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAF11026-BEE7-4810-A662-14866A3103A8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3EC323E-1C66-4DED-84F7-F717AC772B25}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tests/test_paklijsten/paklijst_kokos.xlsx
+++ b/tests/test_paklijsten/paklijst_kokos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Documents\HDS\2d_rectangle_packing\tests\test_paklijsten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B259D1D9-307F-4931-8D8E-D262EDF17641}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89527E83-8B08-4D19-BF56-3CBEACAF07AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="paklijst_zonder_opmaak" sheetId="1" r:id="rId1"/>
@@ -49,9 +49,6 @@
     <t>Klantnaam</t>
   </si>
   <si>
-    <t>Kleur</t>
-  </si>
-  <si>
     <t>Rolbreedte</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>Artikelnaam</t>
+  </si>
+  <si>
+    <t>Soort</t>
   </si>
 </sst>
 </file>
@@ -106,13 +106,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -169,19 +176,20 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,30 +557,30 @@
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="L1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
         <v>21</v>
-      </c>
-      <c r="M1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
       </c>
       <c r="E2">
         <v>105</v>
@@ -581,39 +589,39 @@
         <v>44176</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2">
         <v>120344255</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2">
         <v>200</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
       </c>
       <c r="E3">
         <v>120</v>
@@ -622,25 +630,25 @@
         <v>44176</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>120344340</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J3">
         <v>100</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1118,21 +1126,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005F1A4E165AE4AA47A58D7F402C58032D" ma:contentTypeVersion="12" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="08e8f4128fe39f6c410bb3e184f6b02c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a770380-a541-49fb-a5e7-be562a0ab7fc" xmlns:ns3="ce6e5384-3d40-41c8-8f4c-f6763c848ff7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="638cd77b2c67c1f99ba832209e451d50" ns2:_="" ns3:_="">
     <xsd:import namespace="1a770380-a541-49fb-a5e7-be562a0ab7fc"/>
@@ -1349,24 +1342,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAF11026-BEE7-4810-A662-14866A3103A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3EC323E-1C66-4DED-84F7-F717AC772B25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B07BBEF-B0C4-4366-A071-C1C9ADEA7D0F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1383,4 +1374,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3EC323E-1C66-4DED-84F7-F717AC772B25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAF11026-BEE7-4810-A662-14866A3103A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/tests/test_paklijsten/paklijst_kokos.xlsx
+++ b/tests/test_paklijsten/paklijst_kokos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Documents\HDS\2d_rectangle_packing\tests\test_paklijsten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89527E83-8B08-4D19-BF56-3CBEACAF07AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4BD391-7719-42D4-9EC8-26FF5E45C30C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="paklijst_zonder_opmaak" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Aantal</t>
   </si>
@@ -71,9 +71,6 @@
 Rolbreedte 200 cm_x000D_
 Breedte: 197cm, Lengte: 105 cm_x000D_
 </t>
-  </si>
-  <si>
-    <t>197</t>
   </si>
   <si>
     <t>Lash &amp; Brow Bar</t>
@@ -509,26 +506,26 @@
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125"/>
-    <col min="2" max="2" width="11.28515625"/>
-    <col min="3" max="3" width="52.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125"/>
-    <col min="5" max="5" width="6.42578125"/>
-    <col min="6" max="6" width="10.85546875" style="1"/>
-    <col min="7" max="7" width="13.42578125"/>
-    <col min="8" max="8" width="12.85546875"/>
-    <col min="9" max="9" width="26.140625"/>
-    <col min="10" max="10" width="16.85546875"/>
-    <col min="11" max="11" width="10.140625"/>
-    <col min="12" max="1025" width="8.5703125"/>
+    <col min="1" max="1" width="11.5546875"/>
+    <col min="2" max="2" width="11.33203125"/>
+    <col min="3" max="3" width="52.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625"/>
+    <col min="5" max="5" width="6.44140625"/>
+    <col min="6" max="6" width="10.88671875" style="1"/>
+    <col min="7" max="7" width="13.44140625"/>
+    <col min="8" max="8" width="12.88671875"/>
+    <col min="9" max="9" width="26.109375"/>
+    <col min="10" max="10" width="16.88671875"/>
+    <col min="11" max="11" width="10.109375"/>
+    <col min="12" max="1025" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -560,16 +557,16 @@
         <v>9</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -579,11 +576,11 @@
       <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
+      <c r="D2">
+        <v>80</v>
       </c>
       <c r="E2">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="F2">
         <v>44176</v>
@@ -595,7 +592,7 @@
         <v>120344255</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2">
         <v>200</v>
@@ -610,7 +607,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -618,7 +615,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -636,7 +633,7 @@
         <v>120344340</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J3">
         <v>100</v>
@@ -651,31 +648,31 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C4" s="4"/>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C5" s="4"/>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C6" s="4"/>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C7" s="4"/>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C8" s="4"/>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C9" s="4"/>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -688,7 +685,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -701,7 +698,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -714,7 +711,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -727,7 +724,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -740,7 +737,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -753,7 +750,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -766,7 +763,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -779,7 +776,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -792,7 +789,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -805,7 +802,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -818,7 +815,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -831,7 +828,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -844,7 +841,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -857,7 +854,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -870,7 +867,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -883,7 +880,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -896,7 +893,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -909,7 +906,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -922,7 +919,7 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -935,7 +932,7 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -948,7 +945,7 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -961,7 +958,7 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -974,7 +971,7 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -987,7 +984,7 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1000,7 +997,7 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1013,7 +1010,7 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1026,7 +1023,7 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1039,7 +1036,7 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1052,7 +1049,7 @@
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1065,7 +1062,7 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1078,7 +1075,7 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1091,22 +1088,22 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F42"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F43"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F44"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F45"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F46"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1126,6 +1123,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005F1A4E165AE4AA47A58D7F402C58032D" ma:contentTypeVersion="12" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="08e8f4128fe39f6c410bb3e184f6b02c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a770380-a541-49fb-a5e7-be562a0ab7fc" xmlns:ns3="ce6e5384-3d40-41c8-8f4c-f6763c848ff7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="638cd77b2c67c1f99ba832209e451d50" ns2:_="" ns3:_="">
     <xsd:import namespace="1a770380-a541-49fb-a5e7-be562a0ab7fc"/>
@@ -1342,22 +1354,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAF11026-BEE7-4810-A662-14866A3103A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3EC323E-1C66-4DED-84F7-F717AC772B25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B07BBEF-B0C4-4366-A071-C1C9ADEA7D0F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1374,21 +1388,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3EC323E-1C66-4DED-84F7-F717AC772B25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAF11026-BEE7-4810-A662-14866A3103A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/tests/test_paklijsten/paklijst_kokos.xlsx
+++ b/tests/test_paklijsten/paklijst_kokos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Documents\HDS\2d_rectangle_packing\tests\test_paklijsten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4BD391-7719-42D4-9EC8-26FF5E45C30C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C955B14E-49B8-44AB-A503-B02EBFD4E918}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11385" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="paklijst_zonder_opmaak" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>Aantal</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>Kokos</t>
-  </si>
-  <si>
-    <t>60</t>
   </si>
   <si>
     <t>naturel</t>
@@ -506,26 +503,26 @@
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875"/>
-    <col min="2" max="2" width="11.33203125"/>
-    <col min="3" max="3" width="52.6640625" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625"/>
-    <col min="5" max="5" width="6.44140625"/>
-    <col min="6" max="6" width="10.88671875" style="1"/>
-    <col min="7" max="7" width="13.44140625"/>
-    <col min="8" max="8" width="12.88671875"/>
-    <col min="9" max="9" width="26.109375"/>
-    <col min="10" max="10" width="16.88671875"/>
-    <col min="11" max="11" width="10.109375"/>
-    <col min="12" max="1025" width="8.5546875"/>
+    <col min="1" max="1" width="11.5703125"/>
+    <col min="2" max="2" width="11.28515625"/>
+    <col min="3" max="3" width="52.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125"/>
+    <col min="5" max="5" width="6.42578125"/>
+    <col min="6" max="6" width="10.85546875" style="1"/>
+    <col min="7" max="7" width="13.42578125"/>
+    <col min="8" max="8" width="12.85546875"/>
+    <col min="9" max="9" width="26.140625"/>
+    <col min="10" max="10" width="16.85546875"/>
+    <col min="11" max="11" width="10.140625"/>
+    <col min="12" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -557,16 +554,16 @@
         <v>9</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -574,13 +571,13 @@
         <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="E2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F2">
         <v>44176</v>
@@ -592,13 +589,13 @@
         <v>120344255</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J2">
         <v>200</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
@@ -607,7 +604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -615,10 +612,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>60</v>
       </c>
       <c r="E3">
         <v>120</v>
@@ -633,13 +630,13 @@
         <v>120344340</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3">
         <v>100</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L3" t="s">
         <v>12</v>
@@ -648,31 +645,31 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C4" s="4"/>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C5" s="4"/>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C8" s="4"/>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -685,7 +682,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -698,7 +695,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -711,7 +708,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -724,7 +721,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -737,7 +734,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -750,7 +747,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -763,7 +760,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -776,7 +773,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -789,7 +786,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -802,7 +799,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -815,7 +812,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -828,7 +825,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -841,7 +838,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -854,7 +851,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -867,7 +864,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -880,7 +877,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -893,7 +890,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -906,7 +903,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -919,7 +916,7 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -932,7 +929,7 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -945,7 +942,7 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -958,7 +955,7 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -971,7 +968,7 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -984,7 +981,7 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -997,7 +994,7 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1010,7 +1007,7 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1023,7 +1020,7 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1036,7 +1033,7 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1049,7 +1046,7 @@
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1062,7 +1059,7 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1075,7 +1072,7 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1088,22 +1085,22 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F42"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F43"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F44"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F45"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F46"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1123,21 +1120,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005F1A4E165AE4AA47A58D7F402C58032D" ma:contentTypeVersion="12" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="08e8f4128fe39f6c410bb3e184f6b02c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a770380-a541-49fb-a5e7-be562a0ab7fc" xmlns:ns3="ce6e5384-3d40-41c8-8f4c-f6763c848ff7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="638cd77b2c67c1f99ba832209e451d50" ns2:_="" ns3:_="">
     <xsd:import namespace="1a770380-a541-49fb-a5e7-be562a0ab7fc"/>
@@ -1354,24 +1336,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAF11026-BEE7-4810-A662-14866A3103A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3EC323E-1C66-4DED-84F7-F717AC772B25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B07BBEF-B0C4-4366-A071-C1C9ADEA7D0F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1388,4 +1368,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3EC323E-1C66-4DED-84F7-F717AC772B25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAF11026-BEE7-4810-A662-14866A3103A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>